--- a/src/test/resorce/forresister4.xlsx
+++ b/src/test/resorce/forresister4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\sogoensyu\src\test\resorce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB98DAF3-AF2D-46DC-ABF4-732ADA292874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305E9CDB-0B13-4A7B-BB91-053A61C60CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="forresister" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>$2a$10$57o8HGavMZY6TbfCkkU.S.5OnyPLBVW8AcuA2T4LnY.01fyagmtn6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resister_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-06-20 12:00:00.000000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E3E71-7604-496F-89FD-877AF1272B90}">
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EE414B-6313-40D1-9E11-6AB96942188A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -522,9 +534,10 @@
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +565,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,6 +599,12 @@
       </c>
       <c r="I2" t="b">
         <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
